--- a/archivos_ejemplo/excel_prueba/pocos.xlsx
+++ b/archivos_ejemplo/excel_prueba/pocos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferro\OneDrive\Escritorio\Mejor_ninez\archivos_ejemplo\excel_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B580A1-EE7C-49AB-B900-E662B1FCA65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7057BDE5-927B-4DD1-91FA-91ED71DCB9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>codNNA</t>
   </si>
@@ -244,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -265,11 +265,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -278,11 +289,48 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -312,41 +360,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -361,7 +374,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}" name="Tabla1" displayName="Tabla1" ref="A1:W3" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}" name="Tabla1" displayName="Tabla1" ref="A1:W3" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
   <autoFilter ref="A1:W3" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{0465EC0A-A3C3-4E31-AA67-3B04499768AB}" name="codNNA"/>
@@ -655,23 +668,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.21875" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.109375" customWidth="1"/>
     <col min="12" max="12" width="9.77734375" customWidth="1"/>
     <col min="14" max="14" width="13.88671875" customWidth="1"/>
@@ -683,7 +696,7 @@
     <col min="20" max="20" width="17.88671875" customWidth="1"/>
     <col min="21" max="21" width="9.77734375" customWidth="1"/>
     <col min="22" max="22" width="12.21875" customWidth="1"/>
-    <col min="23" max="23" width="16.5546875" customWidth="1"/>
+    <col min="23" max="23" width="40.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -899,9 +912,80 @@
         <v>56</v>
       </c>
     </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4965665</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1591408</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5">
+        <v>45259</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4">
+        <v>16</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="A1:A4">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/archivos_ejemplo/excel_prueba/pocos.xlsx
+++ b/archivos_ejemplo/excel_prueba/pocos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferro\OneDrive\Escritorio\Mejor_ninez\archivos_ejemplo\excel_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7057BDE5-927B-4DD1-91FA-91ED71DCB9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5B7040-8899-483B-A45F-3A2D9E803C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>codNNA</t>
   </si>
@@ -120,9 +120,6 @@
     <t>2022-03-21</t>
   </si>
   <si>
-    <t>2024-11-29</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>437 Wilson Way Apt. 785, Lake Jonathan, 24096</t>
   </si>
   <si>
-    <t>Arica</t>
-  </si>
-  <si>
     <t>TRIBUNAL</t>
   </si>
   <si>
@@ -180,15 +174,9 @@
     <t>2023-03-11</t>
   </si>
   <si>
-    <t>2024-06-23</t>
-  </si>
-  <si>
     <t>2953 Sandra Light, Teresaland, 96458</t>
   </si>
   <si>
-    <t>San Miguel</t>
-  </si>
-  <si>
     <t>New Jamesstad</t>
   </si>
   <si>
@@ -196,6 +184,33 @@
   </si>
   <si>
     <t>VÍCTIMA DE NEGLIGENCIA GRAVE</t>
+  </si>
+  <si>
+    <t>Fecha de incio</t>
+  </si>
+  <si>
+    <t>duracion en meses</t>
+  </si>
+  <si>
+    <t>Capacidad</t>
+  </si>
+  <si>
+    <t>tipo de programa</t>
+  </si>
+  <si>
+    <t>riegos vital</t>
+  </si>
+  <si>
+    <t>abuso</t>
+  </si>
+  <si>
+    <t>chillan</t>
+  </si>
+  <si>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>chillan viejo</t>
   </si>
 </sst>
 </file>
@@ -219,29 +234,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -280,22 +303,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -315,7 +386,7 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -374,21 +445,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}" name="Tabla1" displayName="Tabla1" ref="A1:W3" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
-  <autoFilter ref="A1:W3" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}" name="Tabla1" displayName="Tabla1" ref="A1:AA3" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
+  <autoFilter ref="A1:AA3" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{0465EC0A-A3C3-4E31-AA67-3B04499768AB}" name="codNNA"/>
     <tableColumn id="2" xr3:uid="{D2780459-4825-4C80-9B36-56F03B8C04C8}" name="institucion"/>
     <tableColumn id="3" xr3:uid="{B50E953F-A5B6-4602-AC84-323FE8812F95}" name="CodProyecto"/>
     <tableColumn id="4" xr3:uid="{3A6EE614-03D4-40A1-86BD-9317A12C5C37}" name="proyecto"/>
+    <tableColumn id="25" xr3:uid="{A8E4C56D-F2F8-4E79-BBBE-18B367CCBE42}" name="Fecha de incio" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{D5F42BEA-CBBA-420E-9BB5-9FEFDD2F6885}" name="duracion en meses" dataDxfId="2"/>
+    <tableColumn id="27" xr3:uid="{0AD36393-81E7-4CE9-9BB1-FEA8F023D94F}" name="tipo de programa" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{714D7F0F-EB09-4191-833A-CF6EE1A1773C}" name="Capacidad" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{04607DB5-6DDB-487F-BC80-C971ECC5B843}" name="apellido_paterno"/>
     <tableColumn id="6" xr3:uid="{0487F65C-910C-44B3-B4E6-FDCD6F41926E}" name="apellido_materno"/>
     <tableColumn id="7" xr3:uid="{9028F1CC-A7D7-40CE-9A95-430833FD983A}" name="nombres"/>
     <tableColumn id="8" xr3:uid="{B472D991-BB1C-4346-81DF-E76BE393C8D9}" name="fechanacimiento"/>
     <tableColumn id="9" xr3:uid="{92468C89-5E6D-4679-8E59-6875FA29395E}" name="rut"/>
-    <tableColumn id="10" xr3:uid="{E79016FF-D2B0-4016-89D8-BED2537383CD}" name="fechaingreso"/>
+    <tableColumn id="10" xr3:uid="{E79016FF-D2B0-4016-89D8-BED2537383CD}" name="fechaingreso" dataDxfId="4"/>
     <tableColumn id="11" xr3:uid="{2BCA5911-83AA-4C28-9976-DD4E7A0F312A}" name="fechaegreso"/>
-    <tableColumn id="12" xr3:uid="{A67C5079-A955-4DBE-B7EB-96FBDF76AEA7}" name="vigencia" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{A67C5079-A955-4DBE-B7EB-96FBDF76AEA7}" name="vigencia" dataDxfId="6"/>
     <tableColumn id="13" xr3:uid="{01654AB9-409D-439E-982B-49A38F8E51BE}" name="sexo"/>
     <tableColumn id="14" xr3:uid="{1AA98D54-1789-440C-B988-6BF463BEEA60}" name="Nacionalidad"/>
     <tableColumn id="15" xr3:uid="{BB3E3E29-65E0-4AE3-8D7C-842ECEA3F183}" name="TipoAtencion"/>
@@ -668,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8:V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,26 +755,32 @@
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="17.88671875" customWidth="1"/>
-    <col min="21" max="21" width="9.77734375" customWidth="1"/>
-    <col min="22" max="22" width="12.21875" customWidth="1"/>
-    <col min="23" max="23" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="40.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,65 +793,77 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4965665</v>
       </c>
@@ -783,209 +876,246 @@
       <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8">
+        <v>44582</v>
+      </c>
+      <c r="F2" s="10">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="10">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" s="3">
+        <v>44894</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2">
+        <v>16</v>
+      </c>
+      <c r="W2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" t="s">
         <v>37</v>
       </c>
-      <c r="R2">
-        <v>16</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="Y2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Z2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7062162</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>1591408</v>
       </c>
       <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="8">
+        <v>44947</v>
+      </c>
+      <c r="F3" s="10">
+        <v>24</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="10">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
+      <c r="N3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" s="3">
+        <v>45466</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" t="s">
         <v>49</v>
       </c>
-      <c r="J3" t="s">
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" t="s">
         <v>50</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Z3" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="AA3" t="s">
         <v>52</v>
       </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
-      <c r="S3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4965665</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>1591408</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="9">
+        <v>44947</v>
+      </c>
+      <c r="F4" s="11">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="11">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="N4" s="4">
+        <v>45006</v>
+      </c>
+      <c r="O4" s="4">
         <v>45259</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="P4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="s">
         <v>32</v>
       </c>
-      <c r="M4" t="s">
+      <c r="R4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" t="s">
+      <c r="S4" t="s">
         <v>34</v>
       </c>
-      <c r="O4" t="s">
+      <c r="T4" t="s">
         <v>35</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="V4">
+        <v>16</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
         <v>37</v>
       </c>
-      <c r="R4">
-        <v>16</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="Y4" t="s">
         <v>38</v>
       </c>
-      <c r="T4" t="s">
+      <c r="Z4" t="s">
         <v>39</v>
       </c>
-      <c r="U4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" t="s">
-        <v>56</v>
+      <c r="AA4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/archivos_ejemplo/excel_prueba/pocos.xlsx
+++ b/archivos_ejemplo/excel_prueba/pocos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferro\OneDrive\Escritorio\Mejor_ninez\archivos_ejemplo\excel_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5B7040-8899-483B-A45F-3A2D9E803C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7584274-2CEE-40AB-BC4C-3656E2B49A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>codNNA</t>
   </si>
@@ -186,9 +186,6 @@
     <t>VÍCTIMA DE NEGLIGENCIA GRAVE</t>
   </si>
   <si>
-    <t>Fecha de incio</t>
-  </si>
-  <si>
     <t>duracion en meses</t>
   </si>
   <si>
@@ -198,12 +195,6 @@
     <t>tipo de programa</t>
   </si>
   <si>
-    <t>riegos vital</t>
-  </si>
-  <si>
-    <t>abuso</t>
-  </si>
-  <si>
     <t>chillan</t>
   </si>
   <si>
@@ -211,6 +202,51 @@
   </si>
   <si>
     <t>chillan viejo</t>
+  </si>
+  <si>
+    <t>FUNDACIÓN PARTICULARLY</t>
+  </si>
+  <si>
+    <t>PIE - CIUDAD DEL NIÑO ESTRADABOROUGH</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>2015-04-25</t>
+  </si>
+  <si>
+    <t>89711390-2</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>50925 Bell Lodge Suite 572, Carpenterside, 96993</t>
+  </si>
+  <si>
+    <t>Jamestown</t>
+  </si>
+  <si>
+    <t>65165/5523</t>
+  </si>
+  <si>
+    <t>Viña del Mar</t>
+  </si>
+  <si>
+    <t>RIESGO VITAL</t>
+  </si>
+  <si>
+    <t>ABUSO</t>
+  </si>
+  <si>
+    <t>Fecha de inicio</t>
   </si>
 </sst>
 </file>
@@ -303,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -313,16 +349,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -330,7 +364,48 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -363,37 +438,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -445,25 +489,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}" name="Tabla1" displayName="Tabla1" ref="A1:AA3" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}" name="Tabla1" displayName="Tabla1" ref="A1:AA3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <autoFilter ref="A1:AA3" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{0465EC0A-A3C3-4E31-AA67-3B04499768AB}" name="codNNA"/>
     <tableColumn id="2" xr3:uid="{D2780459-4825-4C80-9B36-56F03B8C04C8}" name="institucion"/>
     <tableColumn id="3" xr3:uid="{B50E953F-A5B6-4602-AC84-323FE8812F95}" name="CodProyecto"/>
     <tableColumn id="4" xr3:uid="{3A6EE614-03D4-40A1-86BD-9317A12C5C37}" name="proyecto"/>
-    <tableColumn id="25" xr3:uid="{A8E4C56D-F2F8-4E79-BBBE-18B367CCBE42}" name="Fecha de incio" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{D5F42BEA-CBBA-420E-9BB5-9FEFDD2F6885}" name="duracion en meses" dataDxfId="2"/>
-    <tableColumn id="27" xr3:uid="{0AD36393-81E7-4CE9-9BB1-FEA8F023D94F}" name="tipo de programa" dataDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{714D7F0F-EB09-4191-833A-CF6EE1A1773C}" name="Capacidad" dataDxfId="0"/>
+    <tableColumn id="25" xr3:uid="{A8E4C56D-F2F8-4E79-BBBE-18B367CCBE42}" name="Fecha de inicio" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{D5F42BEA-CBBA-420E-9BB5-9FEFDD2F6885}" name="duracion en meses" dataDxfId="6"/>
+    <tableColumn id="27" xr3:uid="{0AD36393-81E7-4CE9-9BB1-FEA8F023D94F}" name="tipo de programa" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{714D7F0F-EB09-4191-833A-CF6EE1A1773C}" name="Capacidad" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{04607DB5-6DDB-487F-BC80-C971ECC5B843}" name="apellido_paterno"/>
     <tableColumn id="6" xr3:uid="{0487F65C-910C-44B3-B4E6-FDCD6F41926E}" name="apellido_materno"/>
     <tableColumn id="7" xr3:uid="{9028F1CC-A7D7-40CE-9A95-430833FD983A}" name="nombres"/>
     <tableColumn id="8" xr3:uid="{B472D991-BB1C-4346-81DF-E76BE393C8D9}" name="fechanacimiento"/>
     <tableColumn id="9" xr3:uid="{92468C89-5E6D-4679-8E59-6875FA29395E}" name="rut"/>
-    <tableColumn id="10" xr3:uid="{E79016FF-D2B0-4016-89D8-BED2537383CD}" name="fechaingreso" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E79016FF-D2B0-4016-89D8-BED2537383CD}" name="fechaingreso" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{2BCA5911-83AA-4C28-9976-DD4E7A0F312A}" name="fechaegreso"/>
-    <tableColumn id="12" xr3:uid="{A67C5079-A955-4DBE-B7EB-96FBDF76AEA7}" name="vigencia" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A67C5079-A955-4DBE-B7EB-96FBDF76AEA7}" name="vigencia" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{01654AB9-409D-439E-982B-49A38F8E51BE}" name="sexo"/>
     <tableColumn id="14" xr3:uid="{1AA98D54-1789-440C-B988-6BF463BEEA60}" name="Nacionalidad"/>
     <tableColumn id="15" xr3:uid="{BB3E3E29-65E0-4AE3-8D7C-842ECEA3F183}" name="TipoAtencion"/>
@@ -743,19 +787,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
@@ -793,17 +837,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -876,16 +920,16 @@
       <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>44582</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="G2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="9">
         <v>30</v>
       </c>
       <c r="I2" t="s">
@@ -900,16 +944,16 @@
       <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="O2" s="3">
         <v>44894</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
       <c r="Q2" t="s">
@@ -931,7 +975,7 @@
         <v>16</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X2" t="s">
         <v>37</v>
@@ -959,16 +1003,16 @@
       <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>44947</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="G3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="9">
         <v>25</v>
       </c>
       <c r="I3" t="s">
@@ -986,13 +1030,13 @@
       <c r="M3" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>48</v>
       </c>
       <c r="O3" s="3">
         <v>45466</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" t="s">
         <v>31</v>
       </c>
       <c r="Q3" t="s">
@@ -1014,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X3" t="s">
         <v>37</v>
@@ -1042,16 +1086,16 @@
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>44947</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>24</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="G4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="9">
         <v>25</v>
       </c>
       <c r="I4" t="s">
@@ -1066,7 +1110,7 @@
       <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="N4" s="4">
@@ -1075,7 +1119,7 @@
       <c r="O4" s="4">
         <v>45259</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" t="s">
         <v>31</v>
       </c>
       <c r="Q4" t="s">
@@ -1097,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="X4" t="s">
         <v>37</v>
@@ -1110,12 +1154,95 @@
       </c>
       <c r="AA4" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3233913</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>8397049</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45314</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="3">
+        <v>45435</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/archivos_ejemplo/excel_prueba/pocos.xlsx
+++ b/archivos_ejemplo/excel_prueba/pocos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferro\OneDrive\Escritorio\Mejor_ninez\archivos_ejemplo\excel_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7584274-2CEE-40AB-BC4C-3656E2B49A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E91E1F1-5415-44C3-919E-C71414C2B500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,7 +790,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
